--- a/q-excel-correlation-heatmap.xlsx
+++ b/q-excel-correlation-heatmap.xlsx
@@ -1,42 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
+  </bookViews>
   <sheets>
-    <sheet name="Supply_Chain_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Supply_Chain_Data" sheetId="1" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+  <si>
+    <t>Supplier_Lead_Time</t>
+  </si>
+  <si>
+    <t>Inventory_Levels</t>
+  </si>
+  <si>
+    <t>Order_Frequency</t>
+  </si>
+  <si>
+    <t>Delivery_Performance</t>
+  </si>
+  <si>
+    <t>Cost_Per_Unit</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -52,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -60,18 +69,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,32 +435,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.30313393865572524</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.9151886376425119</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.18980373781411813</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.90808077941735099</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.20802586433319747</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.79909456412484037</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.95721878708074459</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.25391771008742969</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.89147483488489754</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.93467425280101668</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Supplier_Lead_Time</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Inventory_Levels</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Order_Frequency</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Delivery_Performance</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Cost_Per_Unit</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B2">
         <v>167</v>
@@ -433,10 +597,10 @@
         <v>93.4</v>
       </c>
       <c r="E2">
-        <v>19.42</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.2</v>
       </c>
@@ -444,7 +608,7 @@
         <v>149</v>
       </c>
       <c r="C3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D3">
         <v>93.1</v>
@@ -453,7 +617,7 @@
         <v>18.72</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10.7</v>
       </c>
@@ -470,7 +634,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15.3</v>
       </c>
@@ -481,13 +645,13 @@
         <v>7.1</v>
       </c>
       <c r="D5">
-        <v>76.4</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E5">
         <v>30.65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9.6</v>
       </c>
@@ -504,9 +668,9 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B7">
         <v>161</v>
@@ -521,7 +685,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -529,7 +693,7 @@
         <v>346</v>
       </c>
       <c r="C8">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D8">
         <v>83</v>
@@ -538,7 +702,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>19.5</v>
       </c>
@@ -549,21 +713,21 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>71.1</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="E9">
-        <v>33.34</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>33.340000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B10">
         <v>80</v>
       </c>
       <c r="C10">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D10">
         <v>85.7</v>
@@ -572,7 +736,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14.2</v>
       </c>
@@ -589,7 +753,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15.4</v>
       </c>
@@ -600,13 +764,13 @@
         <v>6.4</v>
       </c>
       <c r="D12">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="E12">
         <v>29.68</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9.5</v>
       </c>
@@ -614,7 +778,7 @@
         <v>400</v>
       </c>
       <c r="C13">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D13">
         <v>86.7</v>
@@ -623,7 +787,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5.5</v>
       </c>
@@ -640,15 +804,15 @@
         <v>20.54</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B15">
         <v>262</v>
       </c>
       <c r="C15">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D15">
         <v>91.8</v>
@@ -657,7 +821,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13.5</v>
       </c>
@@ -674,7 +838,7 @@
         <v>30.46</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13.2</v>
       </c>
@@ -691,15 +855,15 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B18">
         <v>363</v>
       </c>
       <c r="C18">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D18">
         <v>78.7</v>
@@ -708,7 +872,7 @@
         <v>30.46</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17.7</v>
       </c>
@@ -716,7 +880,7 @@
         <v>385</v>
       </c>
       <c r="C19">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D19">
         <v>80</v>
@@ -725,7 +889,7 @@
         <v>30.93</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19.2</v>
       </c>
@@ -739,12 +903,12 @@
         <v>73.8</v>
       </c>
       <c r="E20">
-        <v>32.77</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="B21">
         <v>164</v>
@@ -753,13 +917,13 @@
         <v>5.3</v>
       </c>
       <c r="D21">
-        <v>77.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="E21">
         <v>31.56</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13.2</v>
       </c>
@@ -776,7 +940,7 @@
         <v>29.02</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15.4</v>
       </c>
@@ -787,13 +951,13 @@
         <v>4.8</v>
       </c>
       <c r="D23">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="E23">
         <v>31.02</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13.9</v>
       </c>
@@ -810,15 +974,15 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B25">
         <v>355</v>
       </c>
       <c r="C25">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D25">
         <v>84</v>
@@ -827,9 +991,9 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B26">
         <v>268</v>
@@ -844,24 +1008,24 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B27">
         <v>372</v>
       </c>
       <c r="C27">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D27">
-        <v>77.9</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="E27">
         <v>33.15</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14.5</v>
       </c>
@@ -878,7 +1042,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12.9</v>
       </c>
@@ -889,15 +1053,15 @@
         <v>6.6</v>
       </c>
       <c r="D29">
-        <v>78.9</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="E29">
         <v>30.33</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B30">
         <v>405</v>
@@ -912,7 +1076,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>18</v>
       </c>
@@ -923,13 +1087,13 @@
         <v>6.2</v>
       </c>
       <c r="D31">
-        <v>72.6</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="E31">
-        <v>32.77</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>9.9</v>
       </c>
@@ -946,7 +1110,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14.9</v>
       </c>
@@ -963,7 +1127,7 @@
         <v>29.22</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>11.8</v>
       </c>
@@ -980,7 +1144,7 @@
         <v>24.89</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>13.6</v>
       </c>
@@ -997,7 +1161,7 @@
         <v>28.53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
@@ -1008,13 +1172,13 @@
         <v>3.2</v>
       </c>
       <c r="D36">
-        <v>71.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="E36">
         <v>37</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>18.2</v>
       </c>
@@ -1025,15 +1189,15 @@
         <v>3.5</v>
       </c>
       <c r="D37">
-        <v>72.4</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="E37">
-        <v>35.41</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>35.409999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B38">
         <v>242</v>
@@ -1048,7 +1212,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6.6</v>
       </c>
@@ -1065,7 +1229,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>15.4</v>
       </c>
@@ -1076,13 +1240,13 @@
         <v>5.8</v>
       </c>
       <c r="D40">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E40">
         <v>32.18</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13.5</v>
       </c>
@@ -1099,7 +1263,7 @@
         <v>30.32</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6.5</v>
       </c>
@@ -1116,7 +1280,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7.4</v>
       </c>
@@ -1124,7 +1288,7 @@
         <v>209</v>
       </c>
       <c r="C43">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D43">
         <v>88.4</v>
@@ -1133,9 +1297,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B44">
         <v>293</v>
@@ -1150,7 +1314,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10.4</v>
       </c>
@@ -1167,7 +1331,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6.5</v>
       </c>
@@ -1184,7 +1348,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12.8</v>
       </c>
@@ -1201,7 +1365,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>13.9</v>
       </c>
@@ -1218,7 +1382,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>18.7</v>
       </c>
@@ -1226,7 +1390,7 @@
         <v>307</v>
       </c>
       <c r="C49">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D49">
         <v>76.3</v>
@@ -1235,7 +1399,7 @@
         <v>34.54</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1252,7 +1416,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14.3</v>
       </c>
@@ -1269,7 +1433,7 @@
         <v>29.03</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6.1</v>
       </c>
@@ -1287,8 +1451,9 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E52"/>
+    <ignoredError sqref="A1:E52" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>